--- a/server/evalTestResult.xlsx
+++ b/server/evalTestResult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepanskovajsa/dev/anubis/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37F023B0-8F31-694A-A7DA-4305020E1058}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05959749-2A24-6F44-82AD-5D1D11AB4B36}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FD5FF6A1-92A4-A243-804F-24192C685075}"/>
   </bookViews>
@@ -16,9 +16,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="evalError" localSheetId="0">Sheet1!$G$15:$J$48</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$A$35</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$35</definedName>
+    <definedName name="evalError" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,178 +33,16 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{21F498EE-66C7-8D4F-B550-921D9533D58E}" name="evalError" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/stepanskovajsa/dev/anubis/server/evalError.csv" decimal="," thousands=" " tab="0" comma="1">
-      <textFields count="4">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>0.2066458982346833</t>
+    <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2066458982346833 </t>
+    <t>A</t>
   </si>
   <si>
-    <t>0.18276220145379024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38940809968847356 </t>
-  </si>
-  <si>
-    <t>0.14018691588785046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.529595015576324 </t>
-  </si>
-  <si>
-    <t>0.10384215991692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6334371754932503 </t>
-  </si>
-  <si>
-    <t>0.07268951194184839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7061266874350987 </t>
-  </si>
-  <si>
-    <t>0.06334371754932502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7694704049844237 </t>
-  </si>
-  <si>
-    <t>0.036344755970924195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8058151609553479 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8421599169262721 </t>
-  </si>
-  <si>
-    <t>0.033229491173416406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8753894080996886 </t>
-  </si>
-  <si>
-    <t>0.018691588785046728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8940809968847353 </t>
-  </si>
-  <si>
-    <t>0.017653167185877467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9117341640706128 </t>
-  </si>
-  <si>
-    <t>0.01142263759086189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9231568016614747 </t>
-  </si>
-  <si>
-    <t>0.007268951194184839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9304257528556595 </t>
-  </si>
-  <si>
-    <t>0.009345794392523364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9397715472481829 </t>
-  </si>
-  <si>
-    <t>0.008307372793354102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948078920041537 </t>
-  </si>
-  <si>
-    <t>0.003115264797507788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9511941848390448 </t>
-  </si>
-  <si>
-    <t>0.005192107995846314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9563862928348912 </t>
-  </si>
-  <si>
-    <t>0.0010384215991692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9574247144340604 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9667705088265838 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9750778816199379 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9761163032191071 </t>
-  </si>
-  <si>
-    <t>0.004153686396677051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9802699896157842 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9844236760124612 </t>
-  </si>
-  <si>
-    <t>0.0020768431983385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9865005192107997 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9885773624091383 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9906542056074769 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9916926272066461 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9927310488058153 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9937694704049845 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9958463136033231 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9968847352024923 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9979231568016615 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9989615784008308 </t>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -235,8 +79,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -254,8 +102,1332 @@
 </styleSheet>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="evalError" connectionId="1" xr16:uid="{5319F1A7-9C9E-F04F-880A-23D45B1D1C0D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2200000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2800000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3100000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3300000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3600000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3800000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4100000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4200000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4300000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4800000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4900000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.20664589823468299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18276220145378999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14018691588785001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.103842159916926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2689511941848306E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3343717549324996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6344755970924097E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6344755970924097E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3229491173416399E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.86915887850467E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7653167185877401E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.14226375908618E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2689511941848297E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3457943925233603E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3073727933540998E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1152647975077798E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1921079958463104E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0384215991692601E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.3457943925233603E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3073727933540998E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0384215991692601E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.1536863966770499E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1536863966770499E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0768431983385202E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0768431983385202E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0768431983385202E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0384215991692601E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0384215991692601E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0384215991692601E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0768431983385202E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0384215991692601E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0384215991692601E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0384215991692601E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0384215991692601E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6921-6E4E-8B43-074419C2E0C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2100000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2200000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2800000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3100000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3300000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3600000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3800000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4100000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4200000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4300000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4800000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4900000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.20664589823468299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38940809968847301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52959501557632405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63343717549324996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70612668743509799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76947040498442298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.805815160955347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84215991692627201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87538940809968802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89408099688473497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91173416407061203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92315680166147396</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93042575285565898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93977154724818202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94807892004153704</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95119418483904405</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95638629283489096</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95742471443405996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.966770508826583</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97507788161993703</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97611630321910703</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.98026998961578404</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.98442367601246095</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98650051921079895</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98857736240913796</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99065420560747597</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99169262720664597</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99273104880581498</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99376947040498398</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99584631360332299</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99688473520249199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99792315680166099</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99896157840083</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6921-6E4E-8B43-074419C2E0C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1795790143"/>
+        <c:axId val="1800708383"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1795790143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1800708383"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1800708383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1795790143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>416560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B45791CA-223C-1F48-A20E-734079D8180B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,397 +1727,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC382B84-EA05-6A4F-A174-7757C794F032}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>100000</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>200000</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+        <v>100000</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.20664589823468299</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.20664589823468299</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>300000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>200000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.18276220145378999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.38940809968847301</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>400000</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>300000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.14018691588785001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.52959501557632405</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>500000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+        <v>400000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.103842159916926</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.63343717549324996</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>600000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>500000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7.2689511941848306E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.70612668743509799</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>700000</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <v>600000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.3343717549324996E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.76947040498442298</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>800000</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+        <v>700000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.6344755970924097E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.805815160955347</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>900000</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
+        <v>800000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.6344755970924097E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.84215991692627201</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1000000</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
+        <v>900000</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.3229491173416399E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.87538940809968802</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1100000</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
+        <v>1000000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.86915887850467E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.89408099688473497</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1200000</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
+        <v>1100000</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.7653167185877401E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.91173416407061203</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1300000</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
+        <v>1200000</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.14226375908618E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.92315680166147396</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1400000</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
+        <v>1300000</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7.2689511941848297E-3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.93042575285565898</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1500000</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
+        <v>1400000</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9.3457943925233603E-3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.93977154724818202</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1600000</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
+        <v>1500000</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8.3073727933540998E-3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.94807892004153704</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1700000</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
+        <v>1600000</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.1152647975077798E-3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.95119418483904405</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1800000</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
+        <v>1700000</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5.1921079958463104E-3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.95638629283489096</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1900000</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
+        <v>1800000</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.0384215991692601E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.95742471443405996</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2100000</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
+        <v>1900000</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9.3457943925233603E-3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.966770508826583</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2200000</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
+        <v>2100000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8.3073727933540998E-3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.97507788161993703</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2400000</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
+        <v>2200000</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.0384215991692601E-3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.97611630321910703</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2600000</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
+        <v>2400000</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4.1536863966770499E-3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.98026998961578404</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2800000</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
+        <v>2600000</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.1536863966770499E-3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.98442367601246095</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>3100000</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
+        <v>2800000</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.0768431983385202E-3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.98650051921079895</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>3300000</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
+        <v>3100000</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.0768431983385202E-3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.98857736240913796</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>3600000</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
+        <v>3300000</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.0768431983385202E-3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.99065420560747597</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>3800000</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
+        <v>3600000</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.0384215991692601E-3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.99169262720664597</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4100000</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
+        <v>3800000</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.0384215991692601E-3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.99273104880581498</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>4200000</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" t="s">
-        <v>48</v>
+        <v>4100000</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.0384215991692601E-3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.99376947040498398</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>4300000</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
+        <v>4200000</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2.0768431983385202E-3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.99584631360332299</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>4800000</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
+        <v>4300000</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.0384215991692601E-3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.99688473520249199</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>4900000</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
+        <v>4800000</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.0384215991692601E-3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.99792315680166099</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
+        <v>4900000</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.0384215991692601E-3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.99896157840083</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>5100000</v>
       </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34">
+      <c r="B35" s="1">
+        <v>1.0384215991692601E-3</v>
+      </c>
+      <c r="C35" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>